--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T13:58:22+00:00</t>
+    <t>2025-11-21T14:04:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:04:11+00:00</t>
+    <t>2025-11-24T10:17:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T10:17:58+00:00</t>
+    <t>2025-12-01T10:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T10:25:53+00:00</t>
+    <t>2025-12-11T10:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T10:55:27+00:00</t>
+    <t>2025-12-15T08:46:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T08:46:27+00:00</t>
+    <t>2025-12-18T16:50:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T16:50:53+00:00</t>
+    <t>2025-12-29T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:07:59+00:00</t>
+    <t>2026-01-02T10:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T10:06:11+00:00</t>
+    <t>2026-01-09T10:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:45:44+00:00</t>
+    <t>2026-01-09T10:57:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:57:17+00:00</t>
+    <t>2026-01-09T15:41:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:41:51+00:00</t>
+    <t>2026-01-12T15:51:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T15:51:50+00:00</t>
+    <t>2026-01-12T16:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/CodeSystem/type-carte-code-system</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/nde/CodeSystem/type-carte-code-system</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T16:01:49+00:00</t>
+    <t>2026-01-15T15:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T15:18:25+00:00</t>
+    <t>2026-01-16T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:30:25+00:00</t>
+    <t>2026-01-16T10:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T10:53:20+00:00</t>
+    <t>2026-01-21T09:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/ajout-SFE/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T09:19:52+00:00</t>
+    <t>2026-01-23T10:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
